--- a/test/final1.xlsx
+++ b/test/final1.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['new 14z11059c', 'old 14z06292c', 'p6 pump'],['new 14z05032bs', 'old 14z10135c', 'p7 pump'],['new 14z10048c', 'old 14z10006c', 'p14 pump']</t>
+          <t>['new 14z11059c', 'old 14z06292c', 'p6'],['new 14z05032bs', 'old 14z10135c', 'p7'],['new 14z10048c', 'old 14z10006c', 'p14']</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['new 27p10111e', 'old 27p07027e', 'compressor 3'],['new 27p07030e', 'old 27p05114e', 'compressor 5']</t>
+          <t>['new 27p10111e', 'old 27p07027e', 'crc 3'],['new 27p07030e', 'old 27p05114e', 'crc 5']</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['new k-s-s413-0130', 'old k-s-s413-0112', 'p25 gv cylinder']</t>
+          <t>['new k-s-s413-0130', 'old k-s-s413-0112', 'p25']</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['new 14z06242c', 'c2 pump'],['new 14z06201c', 'old 14z06101bs', 'p16 pump']</t>
+          <t>['new 14z06242c', 'c2 pump'],['new 14z06201c', 'old 14z06101bs', 'p16']</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['new 14z06342c', 'old 14z06316c', 'p23 cryopump']</t>
+          <t>['new 14z06342c', 'old 14z06316c', 'p23']</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['new 14z08034c', 'old 14z06298c', 'p13 pump']</t>
+          <t>['new 14z08034c', 'old 14z06298c', 'p13']</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['p11 new gv cylinder k-s-s4s-0026', 'p11 old gv cylinder k-s-s413-0074', '']</t>
+          <t>p11 new gv cylinder k-s-s4s-0026,p11 old gv cylinder k-s-s413-0074</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['new 14z06290c', 'old 14z06308c', 'p18 cryopump no']</t>
+          <t>['new 14z06290c', 'old 14z06308c', 'p18']</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['change new gv cylinder new k-s-s4s-0027 old k-s-s413-0314', '-found p13 gv cylinder bellow leak']</t>
+          <t>change new gv cylinder new k-s-s4s-0027 old k-s-s413-0314</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['new 14z10065c', 'old 14z06286c', 'p17 cryopump no.']</t>
+          <t>['new 14z10065c', 'old 14z06286c', 'p17']</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['new uld pp robot 0306-10243', 'old uld pp robot 1009che10382', '']</t>
+          <t>['new unload pp robot 0306-10243', 'old unload pp robot 1009che10382', '']</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['new 14z15092c', 'old 14z04103b', 'p22 cryopump no']</t>
+          <t>['new 14z15092c', 'old 14z04103b', 'p22']</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['new 0704-10283', 'uld x-fer robot'],['new 0606-10453', 'old 0804-11434', 'ld pp robot'],['new 0804-11432', 'old 0510-10396', 'ld arm']</t>
+          <t>['new 0704-10283', 'unload x-fer robot'],['new 0606-10453', 'old 0804-11434', 'load'],['new 0804-11432', 'old 0510-10396', 'load']</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['new 1609che10795', 'old 0606-13740', 'ld pp robot'],['new 0606-11083', 'old 0606-12073', 'ld arm']</t>
+          <t>['new 1609che10795', 'old 0606-13740', 'load'],['new 0606-11083', 'old 0606-12073', 'load']</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['- change compressor crc 5 new 27p08099e pld 27p12006e', '- p28 mfc 2 install back 300sccm n2 mfc']</t>
+          <t>- change crc crc 5 new 27p08099e pld 27p12006e</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['new 14z15040c', 'old 14z17023c', 'p5 pump'],['new 14z10070c', 'old 14z10090c', 'p12 pump']</t>
+          <t>['new 14z15040c', 'old 14z17023c', 'p5'],['new 14z10070c', 'old 14z10090c', 'p12']</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['new k-s-s413-0150', 'old k-s-s413-0047', 'p19 gv cylinder']</t>
+          <t>['new k-s-s413-0150', 'old k-s-s413-0047', 'p19']</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['old k-s-s4s-0028', 'new k-s-s413-0202', 'p11 gv cylinder']</t>
+          <t>['old k-s-s4s-0028', 'new k-s-s413-0202', 'p11']</t>
         </is>
       </c>
     </row>
